--- a/16-10-2024/pesquisa_satisfacao_Almoço.xlsx
+++ b/16-10-2024/pesquisa_satisfacao_Almoço.xlsx
@@ -11,6 +11,8 @@
     <sheet name="Resultados_Oficiais" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Praças" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Resultados_Praças" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Alunos" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Resultados_Alunos" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -225,6 +227,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -250,6 +255,65 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9525000" cy="4762500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6667500" cy="6667500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -367,6 +431,733 @@
         <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9525000" cy="4762500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6667500" cy="6667500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9525000" cy="4762500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6667500" cy="6667500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9525000" cy="4762500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6667500" cy="6667500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9525000" cy="4762500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6667500" cy="6667500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9525000" cy="4762500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6667500" cy="6667500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9525000" cy="4762500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6667500" cy="6667500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9525000" cy="4762500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6667500" cy="6667500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9525000" cy="4762500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6667500" cy="6667500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9525000" cy="4762500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6667500" cy="6667500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9525000" cy="4762500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6667500" cy="6667500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="20" name="Image 20" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9525000" cy="4762500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6667500" cy="6667500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="22" name="Image 22" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9525000" cy="4762500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6667500" cy="6667500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="24" name="Image 24" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9525000" cy="4762500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="25" name="Image 25" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6667500" cy="6667500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="26" name="Image 26" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -663,7 +1454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,10 +1563,39 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
           <t>2024-10-16 11:28:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2024-10-16 13:12:00</t>
         </is>
       </c>
     </row>
@@ -805,7 +1625,7 @@
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>2.5</v>
+        <v>3.33</v>
       </c>
     </row>
   </sheetData>
@@ -968,4 +1788,511 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Nota da Refeição</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Higiene</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Temperatura</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Tempero</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Cardápio</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Proteína</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Bebida</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sugestões</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Horário da Pesquisa</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2024-10-16 13:11:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Colocar mais tempero na comida. E colocar outro sabor de suco.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2024-10-16 13:12:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2024-10-16 13:13:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2024-10-16 13:13:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2024-10-16 13:14:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2024-10-16 13:15:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Acho que o rancho poderia fornecer mais proteína para os alunos e um cardápio de salada devidamente higienizada</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2024-10-16 13:16:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Voltar com o strogonoff no cardápio e adicionar ovo ao cardápio do café da manhã.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2024-10-16 13:18:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2024-10-16 13:19:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2024-10-16 13:24:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2024-10-16 13:26:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>O fricassê estava muito bom, mas o arroz era um pouco insoso, seria interessante adicionar algum complemento a ele como milho, cenoura, ervilha ou lentilha, bem como um pouco mais de sal.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2024-10-16 13:28:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2024-10-16 14:01:16</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A35:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Média das Notas:</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>4.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>